--- a/SERNAC/Cotizador Protectores Solares/Gráfico.xlsx
+++ b/SERNAC/Cotizador Protectores Solares/Gráfico.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-TRANSPARENCIA\SERNAC\Cotizador Protectores Solares\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF19BC8-58C1-41DB-8C51-C17012966CF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -283,8 +289,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,11 +353,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -393,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,9 +439,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,6 +491,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -634,14 +684,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>480</v>
       </c>
@@ -747,7 +817,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>484</v>
       </c>
@@ -800,7 +870,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>493</v>
       </c>
@@ -853,7 +923,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>313</v>
       </c>
@@ -906,7 +976,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -959,7 +1029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>407</v>
       </c>
@@ -1012,7 +1082,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>296</v>
       </c>
@@ -1065,7 +1135,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>294</v>
       </c>
@@ -1118,7 +1188,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>431</v>
       </c>
@@ -1171,7 +1241,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>302</v>
       </c>
@@ -1224,7 +1294,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>322</v>
       </c>
@@ -1277,7 +1347,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>103</v>
       </c>
@@ -1330,7 +1400,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1383,7 +1453,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>108</v>
       </c>
@@ -1436,7 +1506,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>305</v>
       </c>
@@ -1489,7 +1559,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>121</v>
       </c>
@@ -1500,10 +1570,10 @@
         <v>8990</v>
       </c>
       <c r="D17">
-        <v>5288.235294117647</v>
+        <v>5288.2352941176468</v>
       </c>
       <c r="E17">
-        <v>5288.235294117647</v>
+        <v>5288.2352941176468</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -1542,7 +1612,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>325</v>
       </c>
@@ -1595,7 +1665,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>23</v>
       </c>
@@ -1606,10 +1676,10 @@
         <v>11995</v>
       </c>
       <c r="D19">
-        <v>7055.882352941177</v>
+        <v>7055.8823529411766</v>
       </c>
       <c r="E19">
-        <v>7055.882352941177</v>
+        <v>7055.8823529411766</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -1648,7 +1718,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>123</v>
       </c>
@@ -1701,7 +1771,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>327</v>
       </c>
@@ -1754,7 +1824,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>25</v>
       </c>
@@ -1807,7 +1877,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>97</v>
       </c>
@@ -1818,10 +1888,10 @@
         <v>14990</v>
       </c>
       <c r="D23">
-        <v>9993.333333333334</v>
+        <v>9993.3333333333339</v>
       </c>
       <c r="E23">
-        <v>9993.333333333334</v>
+        <v>9993.3333333333339</v>
       </c>
       <c r="F23" t="s">
         <v>21</v>
@@ -1860,7 +1930,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>291</v>
       </c>
@@ -1871,10 +1941,10 @@
         <v>14990</v>
       </c>
       <c r="D24">
-        <v>9993.333333333334</v>
+        <v>9993.3333333333339</v>
       </c>
       <c r="E24">
-        <v>9993.333333333334</v>
+        <v>9993.3333333333339</v>
       </c>
       <c r="F24" t="s">
         <v>21</v>
@@ -1913,7 +1983,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1966,7 +2036,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>303</v>
       </c>
@@ -2019,7 +2089,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -2072,7 +2142,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>106</v>
       </c>
